--- a/Classes.xlsx
+++ b/Classes.xlsx
@@ -2616,8 +2616,8 @@
 <file path=xl/diagrams/data2.xml><?xml version="1.0" encoding="utf-8"?>
 <dgm:dataModel xmlns:dgm="http://schemas.openxmlformats.org/drawingml/2006/diagram" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main">
   <dgm:ptLst>
-    <dgm:pt modelId="{1FC9F2C0-48B6-4A5D-B71B-6B77F9D3E135}" type="doc">
-      <dgm:prSet loTypeId="urn:microsoft.com/office/officeart/2005/8/layout/orgChart1" loCatId="hierarchy" qsTypeId="urn:microsoft.com/office/officeart/2005/8/quickstyle/simple1" qsCatId="simple" csTypeId="urn:microsoft.com/office/officeart/2005/8/colors/accent1_2" csCatId="accent1" phldr="0"/>
+    <dgm:pt modelId="{AC85848F-0054-4016-AC3C-DDCBBBADF8E9}" type="doc">
+      <dgm:prSet loTypeId="urn:microsoft.com/office/officeart/2005/8/layout/orgChart1" loCatId="hierarchy" qsTypeId="urn:microsoft.com/office/officeart/2005/8/quickstyle/simple1" qsCatId="simple" csTypeId="urn:microsoft.com/office/officeart/2005/8/colors/accent1_2" csCatId="accent1" phldr="1"/>
       <dgm:spPr/>
       <dgm:t>
         <a:bodyPr/>
@@ -2627,8 +2627,22 @@
         </a:p>
       </dgm:t>
     </dgm:pt>
-    <dgm:pt modelId="{B63D0FCC-E530-4051-AEDF-6666A633E249}">
-      <dgm:prSet phldrT="[Text]" phldr="1"/>
+    <dgm:pt modelId="{91EB4208-6407-49A8-B19C-E4E9EED42FEE}">
+      <dgm:prSet phldrT="[Text]"/>
+      <dgm:spPr/>
+      <dgm:t>
+        <a:bodyPr/>
+        <a:lstStyle/>
+        <a:p>
+          <a:r>
+            <a:rPr lang="en-US"/>
+            <a:t>GameManager</a:t>
+          </a:r>
+        </a:p>
+      </dgm:t>
+    </dgm:pt>
+    <dgm:pt modelId="{F1C8C867-427D-4FBF-BAF9-7C814F9CB52F}" type="parTrans" cxnId="{61DCCDEB-D279-431A-B7C4-8967500D5F08}">
+      <dgm:prSet/>
       <dgm:spPr/>
       <dgm:t>
         <a:bodyPr/>
@@ -2638,7 +2652,7 @@
         </a:p>
       </dgm:t>
     </dgm:pt>
-    <dgm:pt modelId="{3E11BE89-C1EC-4155-90C8-A54F35C94D3B}" type="parTrans" cxnId="{DB3D0B5D-3630-493B-A464-1BCFFEBC2193}">
+    <dgm:pt modelId="{103ECFE5-FAC7-4BAD-88A7-0C15AE09AEE6}" type="sibTrans" cxnId="{61DCCDEB-D279-431A-B7C4-8967500D5F08}">
       <dgm:prSet/>
       <dgm:spPr/>
       <dgm:t>
@@ -2649,7 +2663,21 @@
         </a:p>
       </dgm:t>
     </dgm:pt>
-    <dgm:pt modelId="{DDC22550-8893-4E21-8C51-7F6C25348718}" type="sibTrans" cxnId="{DB3D0B5D-3630-493B-A464-1BCFFEBC2193}">
+    <dgm:pt modelId="{9A3C1975-2DDB-46D1-9142-15F1EA44AAB8}" type="asst">
+      <dgm:prSet phldrT="[Text]"/>
+      <dgm:spPr/>
+      <dgm:t>
+        <a:bodyPr/>
+        <a:lstStyle/>
+        <a:p>
+          <a:r>
+            <a:rPr lang="en-US"/>
+            <a:t>BaseObject[]</a:t>
+          </a:r>
+        </a:p>
+      </dgm:t>
+    </dgm:pt>
+    <dgm:pt modelId="{BE715D28-76E8-44D5-B883-3B88F1AF8440}" type="parTrans" cxnId="{84BCD888-A731-4FF0-8A70-6736AA4E7213}">
       <dgm:prSet/>
       <dgm:spPr/>
       <dgm:t>
@@ -2660,8 +2688,8 @@
         </a:p>
       </dgm:t>
     </dgm:pt>
-    <dgm:pt modelId="{DF68217A-A482-48C8-B2A2-F3E77E64D221}" type="asst">
-      <dgm:prSet phldrT="[Text]" phldr="1"/>
+    <dgm:pt modelId="{509C8C66-0483-4BA2-8469-557AB7301D22}" type="sibTrans" cxnId="{84BCD888-A731-4FF0-8A70-6736AA4E7213}">
+      <dgm:prSet/>
       <dgm:spPr/>
       <dgm:t>
         <a:bodyPr/>
@@ -2671,129 +2699,30 @@
         </a:p>
       </dgm:t>
     </dgm:pt>
-    <dgm:pt modelId="{8A74D51C-2C11-4097-A532-BD67CFFAAB81}" type="parTrans" cxnId="{B142BE4A-9D18-4BB7-BD68-D568337EEA9E}">
-      <dgm:prSet/>
+    <dgm:pt modelId="{247E199E-132F-4E4C-917D-42BE501F8AC9}" type="asst">
+      <dgm:prSet phldrT="[Text]"/>
       <dgm:spPr/>
       <dgm:t>
         <a:bodyPr/>
         <a:lstStyle/>
         <a:p>
-          <a:endParaRPr lang="en-US"/>
+          <a:r>
+            <a:rPr lang="en-US"/>
+            <a:t>grid[]</a:t>
+          </a:r>
         </a:p>
       </dgm:t>
     </dgm:pt>
-    <dgm:pt modelId="{765B8873-7CF0-4D4D-986C-AA41E99C94E5}" type="sibTrans" cxnId="{B142BE4A-9D18-4BB7-BD68-D568337EEA9E}">
+    <dgm:pt modelId="{B07E297B-8BC0-45E0-A905-4F45524705FE}" type="parTrans" cxnId="{0D4FB87F-EA6E-4F56-9EEA-68F011B43E9E}">
       <dgm:prSet/>
       <dgm:spPr/>
-      <dgm:t>
-        <a:bodyPr/>
-        <a:lstStyle/>
-        <a:p>
-          <a:endParaRPr lang="en-US"/>
-        </a:p>
-      </dgm:t>
-    </dgm:pt>
-    <dgm:pt modelId="{93A86F09-97F9-427B-A67A-0177B22A0A87}">
-      <dgm:prSet phldrT="[Text]" phldr="1"/>
-      <dgm:spPr/>
-      <dgm:t>
-        <a:bodyPr/>
-        <a:lstStyle/>
-        <a:p>
-          <a:endParaRPr lang="en-US"/>
-        </a:p>
-      </dgm:t>
-    </dgm:pt>
-    <dgm:pt modelId="{457F3137-8D41-4332-AD96-6507DBB31F68}" type="parTrans" cxnId="{AB9083AA-2A74-4ABA-A8AB-2A5C622559DB}">
+    </dgm:pt>
+    <dgm:pt modelId="{1AE8F3CA-33AC-4B51-B7DA-F78533B48540}" type="sibTrans" cxnId="{0D4FB87F-EA6E-4F56-9EEA-68F011B43E9E}">
       <dgm:prSet/>
       <dgm:spPr/>
-      <dgm:t>
-        <a:bodyPr/>
-        <a:lstStyle/>
-        <a:p>
-          <a:endParaRPr lang="en-US"/>
-        </a:p>
-      </dgm:t>
-    </dgm:pt>
-    <dgm:pt modelId="{17A56BC1-35B9-4CDC-8882-D0659D958969}" type="sibTrans" cxnId="{AB9083AA-2A74-4ABA-A8AB-2A5C622559DB}">
-      <dgm:prSet/>
-      <dgm:spPr/>
-      <dgm:t>
-        <a:bodyPr/>
-        <a:lstStyle/>
-        <a:p>
-          <a:endParaRPr lang="en-US"/>
-        </a:p>
-      </dgm:t>
-    </dgm:pt>
-    <dgm:pt modelId="{EBC354A0-2143-492D-B668-9DA56F9488CF}">
-      <dgm:prSet phldrT="[Text]" phldr="1"/>
-      <dgm:spPr/>
-      <dgm:t>
-        <a:bodyPr/>
-        <a:lstStyle/>
-        <a:p>
-          <a:endParaRPr lang="en-US"/>
-        </a:p>
-      </dgm:t>
-    </dgm:pt>
-    <dgm:pt modelId="{C39354E9-EE0A-4062-9DE1-9A58C708E5D3}" type="parTrans" cxnId="{47D07A3D-EBB4-4E39-A922-91BD149556E0}">
-      <dgm:prSet/>
-      <dgm:spPr/>
-      <dgm:t>
-        <a:bodyPr/>
-        <a:lstStyle/>
-        <a:p>
-          <a:endParaRPr lang="en-US"/>
-        </a:p>
-      </dgm:t>
-    </dgm:pt>
-    <dgm:pt modelId="{672FC37A-A393-460D-AD4E-38E92394E6FF}" type="sibTrans" cxnId="{47D07A3D-EBB4-4E39-A922-91BD149556E0}">
-      <dgm:prSet/>
-      <dgm:spPr/>
-      <dgm:t>
-        <a:bodyPr/>
-        <a:lstStyle/>
-        <a:p>
-          <a:endParaRPr lang="en-US"/>
-        </a:p>
-      </dgm:t>
-    </dgm:pt>
-    <dgm:pt modelId="{27416A92-C8A2-4389-8110-51DD44F8EAD2}">
-      <dgm:prSet phldrT="[Text]" phldr="1"/>
-      <dgm:spPr/>
-      <dgm:t>
-        <a:bodyPr/>
-        <a:lstStyle/>
-        <a:p>
-          <a:endParaRPr lang="en-US"/>
-        </a:p>
-      </dgm:t>
-    </dgm:pt>
-    <dgm:pt modelId="{C3A9408E-9B2B-4C6C-8767-6187FE59CF99}" type="parTrans" cxnId="{93E57644-EC9E-4FCA-82B0-CE8574105A43}">
-      <dgm:prSet/>
-      <dgm:spPr/>
-      <dgm:t>
-        <a:bodyPr/>
-        <a:lstStyle/>
-        <a:p>
-          <a:endParaRPr lang="en-US"/>
-        </a:p>
-      </dgm:t>
-    </dgm:pt>
-    <dgm:pt modelId="{CA8A49BE-9062-40F3-8FD0-5F145B3AC660}" type="sibTrans" cxnId="{93E57644-EC9E-4FCA-82B0-CE8574105A43}">
-      <dgm:prSet/>
-      <dgm:spPr/>
-      <dgm:t>
-        <a:bodyPr/>
-        <a:lstStyle/>
-        <a:p>
-          <a:endParaRPr lang="en-US"/>
-        </a:p>
-      </dgm:t>
-    </dgm:pt>
-    <dgm:pt modelId="{E73130A8-EA41-40CC-BD36-B39751B2E176}" type="pres">
-      <dgm:prSet presAssocID="{1FC9F2C0-48B6-4A5D-B71B-6B77F9D3E135}" presName="hierChild1" presStyleCnt="0">
+    </dgm:pt>
+    <dgm:pt modelId="{E2C8D3AD-BFB1-4ABF-A92C-FB6B0975136A}" type="pres">
+      <dgm:prSet presAssocID="{AC85848F-0054-4016-AC3C-DDCBBBADF8E9}" presName="hierChild1" presStyleCnt="0">
         <dgm:presLayoutVars>
           <dgm:orgChart val="1"/>
           <dgm:chPref val="1"/>
@@ -2805,238 +2734,144 @@
       </dgm:prSet>
       <dgm:spPr/>
     </dgm:pt>
-    <dgm:pt modelId="{70DEB7CB-08A5-4136-87A2-14F65E0B9636}" type="pres">
-      <dgm:prSet presAssocID="{B63D0FCC-E530-4051-AEDF-6666A633E249}" presName="hierRoot1" presStyleCnt="0">
+    <dgm:pt modelId="{1DBAB025-8949-43C5-9A58-FD11B4E79A87}" type="pres">
+      <dgm:prSet presAssocID="{91EB4208-6407-49A8-B19C-E4E9EED42FEE}" presName="hierRoot1" presStyleCnt="0">
         <dgm:presLayoutVars>
           <dgm:hierBranch val="init"/>
         </dgm:presLayoutVars>
       </dgm:prSet>
       <dgm:spPr/>
     </dgm:pt>
-    <dgm:pt modelId="{B5A94E7C-646E-4C88-AD09-FF09FCF3B788}" type="pres">
-      <dgm:prSet presAssocID="{B63D0FCC-E530-4051-AEDF-6666A633E249}" presName="rootComposite1" presStyleCnt="0"/>
-      <dgm:spPr/>
-    </dgm:pt>
-    <dgm:pt modelId="{1FAE0B10-53D1-4F00-A787-57CAA6FC3006}" type="pres">
-      <dgm:prSet presAssocID="{B63D0FCC-E530-4051-AEDF-6666A633E249}" presName="rootText1" presStyleLbl="node0" presStyleIdx="0" presStyleCnt="1">
+    <dgm:pt modelId="{70444FD1-8234-4D98-AA3A-C17BD1AF9543}" type="pres">
+      <dgm:prSet presAssocID="{91EB4208-6407-49A8-B19C-E4E9EED42FEE}" presName="rootComposite1" presStyleCnt="0"/>
+      <dgm:spPr/>
+    </dgm:pt>
+    <dgm:pt modelId="{4D729DC9-BC50-49CF-8A3B-37EE80A89E92}" type="pres">
+      <dgm:prSet presAssocID="{91EB4208-6407-49A8-B19C-E4E9EED42FEE}" presName="rootText1" presStyleLbl="node0" presStyleIdx="0" presStyleCnt="1">
         <dgm:presLayoutVars>
           <dgm:chPref val="3"/>
         </dgm:presLayoutVars>
       </dgm:prSet>
       <dgm:spPr/>
     </dgm:pt>
-    <dgm:pt modelId="{DD85241C-21BB-46C0-B5FA-F8CE985A37F1}" type="pres">
-      <dgm:prSet presAssocID="{B63D0FCC-E530-4051-AEDF-6666A633E249}" presName="rootConnector1" presStyleLbl="node1" presStyleIdx="0" presStyleCnt="0"/>
-      <dgm:spPr/>
-    </dgm:pt>
-    <dgm:pt modelId="{96334B99-3C19-4E16-A58C-955CE1451E9D}" type="pres">
-      <dgm:prSet presAssocID="{B63D0FCC-E530-4051-AEDF-6666A633E249}" presName="hierChild2" presStyleCnt="0"/>
-      <dgm:spPr/>
-    </dgm:pt>
-    <dgm:pt modelId="{F07A4951-120D-4CCB-ACCF-B58815868F71}" type="pres">
-      <dgm:prSet presAssocID="{457F3137-8D41-4332-AD96-6507DBB31F68}" presName="Name37" presStyleLbl="parChTrans1D2" presStyleIdx="0" presStyleCnt="4"/>
-      <dgm:spPr/>
-    </dgm:pt>
-    <dgm:pt modelId="{C9FD993B-5AB4-43CE-A2BC-9B60460E597B}" type="pres">
-      <dgm:prSet presAssocID="{93A86F09-97F9-427B-A67A-0177B22A0A87}" presName="hierRoot2" presStyleCnt="0">
+    <dgm:pt modelId="{A68C7E3D-A4B5-487E-B335-0EB75D835432}" type="pres">
+      <dgm:prSet presAssocID="{91EB4208-6407-49A8-B19C-E4E9EED42FEE}" presName="rootConnector1" presStyleLbl="node1" presStyleIdx="0" presStyleCnt="0"/>
+      <dgm:spPr/>
+    </dgm:pt>
+    <dgm:pt modelId="{5CBC965F-73D1-42C3-BC23-1EDBD795361C}" type="pres">
+      <dgm:prSet presAssocID="{91EB4208-6407-49A8-B19C-E4E9EED42FEE}" presName="hierChild2" presStyleCnt="0"/>
+      <dgm:spPr/>
+    </dgm:pt>
+    <dgm:pt modelId="{D4A1D123-8E43-40FD-BF7D-DAB66A37144F}" type="pres">
+      <dgm:prSet presAssocID="{91EB4208-6407-49A8-B19C-E4E9EED42FEE}" presName="hierChild3" presStyleCnt="0"/>
+      <dgm:spPr/>
+    </dgm:pt>
+    <dgm:pt modelId="{B105B187-3854-4DF5-A17C-B41D5BE74AAD}" type="pres">
+      <dgm:prSet presAssocID="{BE715D28-76E8-44D5-B883-3B88F1AF8440}" presName="Name111" presStyleLbl="parChTrans1D2" presStyleIdx="0" presStyleCnt="2"/>
+      <dgm:spPr/>
+    </dgm:pt>
+    <dgm:pt modelId="{90704B15-40AB-4CA7-9021-CF55E82CC937}" type="pres">
+      <dgm:prSet presAssocID="{9A3C1975-2DDB-46D1-9142-15F1EA44AAB8}" presName="hierRoot3" presStyleCnt="0">
         <dgm:presLayoutVars>
           <dgm:hierBranch val="init"/>
         </dgm:presLayoutVars>
       </dgm:prSet>
       <dgm:spPr/>
     </dgm:pt>
-    <dgm:pt modelId="{A062B07C-8A36-4D02-83DD-E440052909AF}" type="pres">
-      <dgm:prSet presAssocID="{93A86F09-97F9-427B-A67A-0177B22A0A87}" presName="rootComposite" presStyleCnt="0"/>
-      <dgm:spPr/>
-    </dgm:pt>
-    <dgm:pt modelId="{83B7AEFD-8693-41DA-80C2-8401C00EF59A}" type="pres">
-      <dgm:prSet presAssocID="{93A86F09-97F9-427B-A67A-0177B22A0A87}" presName="rootText" presStyleLbl="node2" presStyleIdx="0" presStyleCnt="3">
+    <dgm:pt modelId="{28A4F74A-4787-4960-A140-541DD77BBFBF}" type="pres">
+      <dgm:prSet presAssocID="{9A3C1975-2DDB-46D1-9142-15F1EA44AAB8}" presName="rootComposite3" presStyleCnt="0"/>
+      <dgm:spPr/>
+    </dgm:pt>
+    <dgm:pt modelId="{D8896A8E-3003-4CF9-A755-5B0DD72E0DF8}" type="pres">
+      <dgm:prSet presAssocID="{9A3C1975-2DDB-46D1-9142-15F1EA44AAB8}" presName="rootText3" presStyleLbl="asst1" presStyleIdx="0" presStyleCnt="2">
         <dgm:presLayoutVars>
           <dgm:chPref val="3"/>
         </dgm:presLayoutVars>
       </dgm:prSet>
       <dgm:spPr/>
     </dgm:pt>
-    <dgm:pt modelId="{839DC487-41CE-4172-9226-0681D2688C05}" type="pres">
-      <dgm:prSet presAssocID="{93A86F09-97F9-427B-A67A-0177B22A0A87}" presName="rootConnector" presStyleLbl="node2" presStyleIdx="0" presStyleCnt="3"/>
-      <dgm:spPr/>
-    </dgm:pt>
-    <dgm:pt modelId="{2AAADD4F-59A9-425F-BBAE-C5D9C6741850}" type="pres">
-      <dgm:prSet presAssocID="{93A86F09-97F9-427B-A67A-0177B22A0A87}" presName="hierChild4" presStyleCnt="0"/>
-      <dgm:spPr/>
-    </dgm:pt>
-    <dgm:pt modelId="{810F50A6-DA3C-415A-90EB-FE5F446B430C}" type="pres">
-      <dgm:prSet presAssocID="{93A86F09-97F9-427B-A67A-0177B22A0A87}" presName="hierChild5" presStyleCnt="0"/>
-      <dgm:spPr/>
-    </dgm:pt>
-    <dgm:pt modelId="{1137C83A-48DC-4503-8F6E-8E99E424D163}" type="pres">
-      <dgm:prSet presAssocID="{C39354E9-EE0A-4062-9DE1-9A58C708E5D3}" presName="Name37" presStyleLbl="parChTrans1D2" presStyleIdx="1" presStyleCnt="4"/>
-      <dgm:spPr/>
-    </dgm:pt>
-    <dgm:pt modelId="{950236DB-B750-4E2C-A9EF-ADC8DCCB9A6C}" type="pres">
-      <dgm:prSet presAssocID="{EBC354A0-2143-492D-B668-9DA56F9488CF}" presName="hierRoot2" presStyleCnt="0">
+    <dgm:pt modelId="{9DE59E76-F6E4-4A94-8837-95224FFF5FF3}" type="pres">
+      <dgm:prSet presAssocID="{9A3C1975-2DDB-46D1-9142-15F1EA44AAB8}" presName="rootConnector3" presStyleLbl="asst1" presStyleIdx="0" presStyleCnt="2"/>
+      <dgm:spPr/>
+    </dgm:pt>
+    <dgm:pt modelId="{8A6C3457-074D-454C-9338-D5A69FF859DF}" type="pres">
+      <dgm:prSet presAssocID="{9A3C1975-2DDB-46D1-9142-15F1EA44AAB8}" presName="hierChild6" presStyleCnt="0"/>
+      <dgm:spPr/>
+    </dgm:pt>
+    <dgm:pt modelId="{91D44395-94BE-4D6F-9D5C-04AD0BD000C3}" type="pres">
+      <dgm:prSet presAssocID="{9A3C1975-2DDB-46D1-9142-15F1EA44AAB8}" presName="hierChild7" presStyleCnt="0"/>
+      <dgm:spPr/>
+    </dgm:pt>
+    <dgm:pt modelId="{678EFB24-5F7A-44DE-80EA-FC9FC2BAC2D3}" type="pres">
+      <dgm:prSet presAssocID="{B07E297B-8BC0-45E0-A905-4F45524705FE}" presName="Name111" presStyleLbl="parChTrans1D2" presStyleIdx="1" presStyleCnt="2"/>
+      <dgm:spPr/>
+    </dgm:pt>
+    <dgm:pt modelId="{C3F720FC-BCC6-4910-9B11-E7E7292AF7DE}" type="pres">
+      <dgm:prSet presAssocID="{247E199E-132F-4E4C-917D-42BE501F8AC9}" presName="hierRoot3" presStyleCnt="0">
         <dgm:presLayoutVars>
           <dgm:hierBranch val="init"/>
         </dgm:presLayoutVars>
       </dgm:prSet>
       <dgm:spPr/>
     </dgm:pt>
-    <dgm:pt modelId="{6386A00F-9612-4263-A928-2C98944A851C}" type="pres">
-      <dgm:prSet presAssocID="{EBC354A0-2143-492D-B668-9DA56F9488CF}" presName="rootComposite" presStyleCnt="0"/>
-      <dgm:spPr/>
-    </dgm:pt>
-    <dgm:pt modelId="{5A30CFD4-69ED-439B-9C29-7BCE0150D3AC}" type="pres">
-      <dgm:prSet presAssocID="{EBC354A0-2143-492D-B668-9DA56F9488CF}" presName="rootText" presStyleLbl="node2" presStyleIdx="1" presStyleCnt="3">
+    <dgm:pt modelId="{B35F27E6-2AB8-49B5-9556-0590930A5194}" type="pres">
+      <dgm:prSet presAssocID="{247E199E-132F-4E4C-917D-42BE501F8AC9}" presName="rootComposite3" presStyleCnt="0"/>
+      <dgm:spPr/>
+    </dgm:pt>
+    <dgm:pt modelId="{D1685D93-3F6A-43FF-86EC-C738141BAD52}" type="pres">
+      <dgm:prSet presAssocID="{247E199E-132F-4E4C-917D-42BE501F8AC9}" presName="rootText3" presStyleLbl="asst1" presStyleIdx="1" presStyleCnt="2">
         <dgm:presLayoutVars>
           <dgm:chPref val="3"/>
         </dgm:presLayoutVars>
       </dgm:prSet>
       <dgm:spPr/>
     </dgm:pt>
-    <dgm:pt modelId="{8FAAE4F8-2B13-4CE4-944E-7BAD810D8361}" type="pres">
-      <dgm:prSet presAssocID="{EBC354A0-2143-492D-B668-9DA56F9488CF}" presName="rootConnector" presStyleLbl="node2" presStyleIdx="1" presStyleCnt="3"/>
-      <dgm:spPr/>
-    </dgm:pt>
-    <dgm:pt modelId="{BD364BBA-2DCB-4D83-87A7-215ADB1ACF0A}" type="pres">
-      <dgm:prSet presAssocID="{EBC354A0-2143-492D-B668-9DA56F9488CF}" presName="hierChild4" presStyleCnt="0"/>
-      <dgm:spPr/>
-    </dgm:pt>
-    <dgm:pt modelId="{9FF2B8FD-9438-4928-AFDE-371EBC6ABE5A}" type="pres">
-      <dgm:prSet presAssocID="{EBC354A0-2143-492D-B668-9DA56F9488CF}" presName="hierChild5" presStyleCnt="0"/>
-      <dgm:spPr/>
-    </dgm:pt>
-    <dgm:pt modelId="{804429CE-8EFA-4A90-A7B5-833C09201A96}" type="pres">
-      <dgm:prSet presAssocID="{C3A9408E-9B2B-4C6C-8767-6187FE59CF99}" presName="Name37" presStyleLbl="parChTrans1D2" presStyleIdx="2" presStyleCnt="4"/>
-      <dgm:spPr/>
-    </dgm:pt>
-    <dgm:pt modelId="{2E933A33-2D27-4F73-A55A-66A4B8734AC0}" type="pres">
-      <dgm:prSet presAssocID="{27416A92-C8A2-4389-8110-51DD44F8EAD2}" presName="hierRoot2" presStyleCnt="0">
-        <dgm:presLayoutVars>
-          <dgm:hierBranch val="init"/>
-        </dgm:presLayoutVars>
-      </dgm:prSet>
-      <dgm:spPr/>
-    </dgm:pt>
-    <dgm:pt modelId="{B6669788-5BAE-4F5A-AC77-A8B5A44FDDC9}" type="pres">
-      <dgm:prSet presAssocID="{27416A92-C8A2-4389-8110-51DD44F8EAD2}" presName="rootComposite" presStyleCnt="0"/>
-      <dgm:spPr/>
-    </dgm:pt>
-    <dgm:pt modelId="{51F73CD7-B4CB-43AB-8BD0-8C8DA48C01DE}" type="pres">
-      <dgm:prSet presAssocID="{27416A92-C8A2-4389-8110-51DD44F8EAD2}" presName="rootText" presStyleLbl="node2" presStyleIdx="2" presStyleCnt="3">
-        <dgm:presLayoutVars>
-          <dgm:chPref val="3"/>
-        </dgm:presLayoutVars>
-      </dgm:prSet>
-      <dgm:spPr/>
-    </dgm:pt>
-    <dgm:pt modelId="{B92986A6-936D-4BC7-94A8-5B5A7875B901}" type="pres">
-      <dgm:prSet presAssocID="{27416A92-C8A2-4389-8110-51DD44F8EAD2}" presName="rootConnector" presStyleLbl="node2" presStyleIdx="2" presStyleCnt="3"/>
-      <dgm:spPr/>
-    </dgm:pt>
-    <dgm:pt modelId="{2787FAF1-B3DF-4933-8144-82908584834A}" type="pres">
-      <dgm:prSet presAssocID="{27416A92-C8A2-4389-8110-51DD44F8EAD2}" presName="hierChild4" presStyleCnt="0"/>
-      <dgm:spPr/>
-    </dgm:pt>
-    <dgm:pt modelId="{6D312F44-437B-4DF2-B7E3-3614BD2C1BFA}" type="pres">
-      <dgm:prSet presAssocID="{27416A92-C8A2-4389-8110-51DD44F8EAD2}" presName="hierChild5" presStyleCnt="0"/>
-      <dgm:spPr/>
-    </dgm:pt>
-    <dgm:pt modelId="{C8AFEB61-DC1E-4504-8C22-293B00FD6F61}" type="pres">
-      <dgm:prSet presAssocID="{B63D0FCC-E530-4051-AEDF-6666A633E249}" presName="hierChild3" presStyleCnt="0"/>
-      <dgm:spPr/>
-    </dgm:pt>
-    <dgm:pt modelId="{903CF136-3FEC-4AEC-AC75-C1584694D44C}" type="pres">
-      <dgm:prSet presAssocID="{8A74D51C-2C11-4097-A532-BD67CFFAAB81}" presName="Name111" presStyleLbl="parChTrans1D2" presStyleIdx="3" presStyleCnt="4"/>
-      <dgm:spPr/>
-    </dgm:pt>
-    <dgm:pt modelId="{54B13A93-E54C-436B-94BD-6F2AAA231C30}" type="pres">
-      <dgm:prSet presAssocID="{DF68217A-A482-48C8-B2A2-F3E77E64D221}" presName="hierRoot3" presStyleCnt="0">
-        <dgm:presLayoutVars>
-          <dgm:hierBranch val="init"/>
-        </dgm:presLayoutVars>
-      </dgm:prSet>
-      <dgm:spPr/>
-    </dgm:pt>
-    <dgm:pt modelId="{892CDF0D-60EC-4A8C-A5F7-4478155C658E}" type="pres">
-      <dgm:prSet presAssocID="{DF68217A-A482-48C8-B2A2-F3E77E64D221}" presName="rootComposite3" presStyleCnt="0"/>
-      <dgm:spPr/>
-    </dgm:pt>
-    <dgm:pt modelId="{ECD542CF-E888-4ADA-B3B1-12D9CC2A0E7D}" type="pres">
-      <dgm:prSet presAssocID="{DF68217A-A482-48C8-B2A2-F3E77E64D221}" presName="rootText3" presStyleLbl="asst1" presStyleIdx="0" presStyleCnt="1">
-        <dgm:presLayoutVars>
-          <dgm:chPref val="3"/>
-        </dgm:presLayoutVars>
-      </dgm:prSet>
-      <dgm:spPr/>
-    </dgm:pt>
-    <dgm:pt modelId="{2368711F-B425-447F-BF69-C2481281C627}" type="pres">
-      <dgm:prSet presAssocID="{DF68217A-A482-48C8-B2A2-F3E77E64D221}" presName="rootConnector3" presStyleLbl="asst1" presStyleIdx="0" presStyleCnt="1"/>
-      <dgm:spPr/>
-    </dgm:pt>
-    <dgm:pt modelId="{37A82D73-41BA-4ADD-B0B0-9795D69599F8}" type="pres">
-      <dgm:prSet presAssocID="{DF68217A-A482-48C8-B2A2-F3E77E64D221}" presName="hierChild6" presStyleCnt="0"/>
-      <dgm:spPr/>
-    </dgm:pt>
-    <dgm:pt modelId="{D42FC9D1-5325-4E3F-BC6A-3AE5A0C8D443}" type="pres">
-      <dgm:prSet presAssocID="{DF68217A-A482-48C8-B2A2-F3E77E64D221}" presName="hierChild7" presStyleCnt="0"/>
+    <dgm:pt modelId="{8FCD05FC-0CF3-41A0-B582-926209CFF079}" type="pres">
+      <dgm:prSet presAssocID="{247E199E-132F-4E4C-917D-42BE501F8AC9}" presName="rootConnector3" presStyleLbl="asst1" presStyleIdx="1" presStyleCnt="2"/>
+      <dgm:spPr/>
+    </dgm:pt>
+    <dgm:pt modelId="{3F093837-28CB-448F-9FD9-9D7CBEC92C0C}" type="pres">
+      <dgm:prSet presAssocID="{247E199E-132F-4E4C-917D-42BE501F8AC9}" presName="hierChild6" presStyleCnt="0"/>
+      <dgm:spPr/>
+    </dgm:pt>
+    <dgm:pt modelId="{309983C2-0714-4398-BB45-6F844D3814C6}" type="pres">
+      <dgm:prSet presAssocID="{247E199E-132F-4E4C-917D-42BE501F8AC9}" presName="hierChild7" presStyleCnt="0"/>
       <dgm:spPr/>
     </dgm:pt>
   </dgm:ptLst>
   <dgm:cxnLst>
-    <dgm:cxn modelId="{4C4E4E19-45D2-4BBE-B7FB-2E8501F8E2D5}" type="presOf" srcId="{8A74D51C-2C11-4097-A532-BD67CFFAAB81}" destId="{903CF136-3FEC-4AEC-AC75-C1584694D44C}" srcOrd="0" destOrd="0" presId="urn:microsoft.com/office/officeart/2005/8/layout/orgChart1"/>
-    <dgm:cxn modelId="{1447851C-D8CF-4B3B-BC69-4CF971041393}" type="presOf" srcId="{27416A92-C8A2-4389-8110-51DD44F8EAD2}" destId="{51F73CD7-B4CB-43AB-8BD0-8C8DA48C01DE}" srcOrd="0" destOrd="0" presId="urn:microsoft.com/office/officeart/2005/8/layout/orgChart1"/>
-    <dgm:cxn modelId="{D3010529-1A13-4434-9641-D0C033C7EE26}" type="presOf" srcId="{1FC9F2C0-48B6-4A5D-B71B-6B77F9D3E135}" destId="{E73130A8-EA41-40CC-BD36-B39751B2E176}" srcOrd="0" destOrd="0" presId="urn:microsoft.com/office/officeart/2005/8/layout/orgChart1"/>
-    <dgm:cxn modelId="{43802237-1507-425A-9DED-D3C284921BB7}" type="presOf" srcId="{C3A9408E-9B2B-4C6C-8767-6187FE59CF99}" destId="{804429CE-8EFA-4A90-A7B5-833C09201A96}" srcOrd="0" destOrd="0" presId="urn:microsoft.com/office/officeart/2005/8/layout/orgChart1"/>
-    <dgm:cxn modelId="{47D07A3D-EBB4-4E39-A922-91BD149556E0}" srcId="{B63D0FCC-E530-4051-AEDF-6666A633E249}" destId="{EBC354A0-2143-492D-B668-9DA56F9488CF}" srcOrd="2" destOrd="0" parTransId="{C39354E9-EE0A-4062-9DE1-9A58C708E5D3}" sibTransId="{672FC37A-A393-460D-AD4E-38E92394E6FF}"/>
-    <dgm:cxn modelId="{DB3D0B5D-3630-493B-A464-1BCFFEBC2193}" srcId="{1FC9F2C0-48B6-4A5D-B71B-6B77F9D3E135}" destId="{B63D0FCC-E530-4051-AEDF-6666A633E249}" srcOrd="0" destOrd="0" parTransId="{3E11BE89-C1EC-4155-90C8-A54F35C94D3B}" sibTransId="{DDC22550-8893-4E21-8C51-7F6C25348718}"/>
-    <dgm:cxn modelId="{93E57644-EC9E-4FCA-82B0-CE8574105A43}" srcId="{B63D0FCC-E530-4051-AEDF-6666A633E249}" destId="{27416A92-C8A2-4389-8110-51DD44F8EAD2}" srcOrd="3" destOrd="0" parTransId="{C3A9408E-9B2B-4C6C-8767-6187FE59CF99}" sibTransId="{CA8A49BE-9062-40F3-8FD0-5F145B3AC660}"/>
-    <dgm:cxn modelId="{B142BE4A-9D18-4BB7-BD68-D568337EEA9E}" srcId="{B63D0FCC-E530-4051-AEDF-6666A633E249}" destId="{DF68217A-A482-48C8-B2A2-F3E77E64D221}" srcOrd="0" destOrd="0" parTransId="{8A74D51C-2C11-4097-A532-BD67CFFAAB81}" sibTransId="{765B8873-7CF0-4D4D-986C-AA41E99C94E5}"/>
-    <dgm:cxn modelId="{2B231076-735D-4A08-9B35-4CB08FC5CB05}" type="presOf" srcId="{93A86F09-97F9-427B-A67A-0177B22A0A87}" destId="{839DC487-41CE-4172-9226-0681D2688C05}" srcOrd="1" destOrd="0" presId="urn:microsoft.com/office/officeart/2005/8/layout/orgChart1"/>
-    <dgm:cxn modelId="{B5972187-81FB-4218-8E51-5CC4C3D243BB}" type="presOf" srcId="{457F3137-8D41-4332-AD96-6507DBB31F68}" destId="{F07A4951-120D-4CCB-ACCF-B58815868F71}" srcOrd="0" destOrd="0" presId="urn:microsoft.com/office/officeart/2005/8/layout/orgChart1"/>
-    <dgm:cxn modelId="{15B6E387-B381-4312-9792-3A1A713A4C3B}" type="presOf" srcId="{DF68217A-A482-48C8-B2A2-F3E77E64D221}" destId="{ECD542CF-E888-4ADA-B3B1-12D9CC2A0E7D}" srcOrd="0" destOrd="0" presId="urn:microsoft.com/office/officeart/2005/8/layout/orgChart1"/>
-    <dgm:cxn modelId="{F6DA439B-B504-44D1-B65F-03668C648FC4}" type="presOf" srcId="{EBC354A0-2143-492D-B668-9DA56F9488CF}" destId="{8FAAE4F8-2B13-4CE4-944E-7BAD810D8361}" srcOrd="1" destOrd="0" presId="urn:microsoft.com/office/officeart/2005/8/layout/orgChart1"/>
-    <dgm:cxn modelId="{AB9083AA-2A74-4ABA-A8AB-2A5C622559DB}" srcId="{B63D0FCC-E530-4051-AEDF-6666A633E249}" destId="{93A86F09-97F9-427B-A67A-0177B22A0A87}" srcOrd="1" destOrd="0" parTransId="{457F3137-8D41-4332-AD96-6507DBB31F68}" sibTransId="{17A56BC1-35B9-4CDC-8882-D0659D958969}"/>
-    <dgm:cxn modelId="{A4B594AC-AAEA-410D-B2B7-026BF6B0EF23}" type="presOf" srcId="{B63D0FCC-E530-4051-AEDF-6666A633E249}" destId="{DD85241C-21BB-46C0-B5FA-F8CE985A37F1}" srcOrd="1" destOrd="0" presId="urn:microsoft.com/office/officeart/2005/8/layout/orgChart1"/>
-    <dgm:cxn modelId="{02A02CBC-5AED-48F8-93BE-6463A2886FED}" type="presOf" srcId="{B63D0FCC-E530-4051-AEDF-6666A633E249}" destId="{1FAE0B10-53D1-4F00-A787-57CAA6FC3006}" srcOrd="0" destOrd="0" presId="urn:microsoft.com/office/officeart/2005/8/layout/orgChart1"/>
-    <dgm:cxn modelId="{1CB127C9-74CC-41BE-BB5A-3B26C0E5F048}" type="presOf" srcId="{C39354E9-EE0A-4062-9DE1-9A58C708E5D3}" destId="{1137C83A-48DC-4503-8F6E-8E99E424D163}" srcOrd="0" destOrd="0" presId="urn:microsoft.com/office/officeart/2005/8/layout/orgChart1"/>
-    <dgm:cxn modelId="{122EDECC-824A-4D59-8E43-95E954DE4BB6}" type="presOf" srcId="{27416A92-C8A2-4389-8110-51DD44F8EAD2}" destId="{B92986A6-936D-4BC7-94A8-5B5A7875B901}" srcOrd="1" destOrd="0" presId="urn:microsoft.com/office/officeart/2005/8/layout/orgChart1"/>
-    <dgm:cxn modelId="{056990E5-9E40-41AA-9A5C-655C26B56C1A}" type="presOf" srcId="{93A86F09-97F9-427B-A67A-0177B22A0A87}" destId="{83B7AEFD-8693-41DA-80C2-8401C00EF59A}" srcOrd="0" destOrd="0" presId="urn:microsoft.com/office/officeart/2005/8/layout/orgChart1"/>
-    <dgm:cxn modelId="{2B6429EA-F387-40BE-885D-36A81BA7C927}" type="presOf" srcId="{EBC354A0-2143-492D-B668-9DA56F9488CF}" destId="{5A30CFD4-69ED-439B-9C29-7BCE0150D3AC}" srcOrd="0" destOrd="0" presId="urn:microsoft.com/office/officeart/2005/8/layout/orgChart1"/>
-    <dgm:cxn modelId="{A2C59AF7-00FA-4CE6-A02E-0E7D3E9F1978}" type="presOf" srcId="{DF68217A-A482-48C8-B2A2-F3E77E64D221}" destId="{2368711F-B425-447F-BF69-C2481281C627}" srcOrd="1" destOrd="0" presId="urn:microsoft.com/office/officeart/2005/8/layout/orgChart1"/>
-    <dgm:cxn modelId="{61000B8F-9A6C-4084-9E7D-370D06909A07}" type="presParOf" srcId="{E73130A8-EA41-40CC-BD36-B39751B2E176}" destId="{70DEB7CB-08A5-4136-87A2-14F65E0B9636}" srcOrd="0" destOrd="0" presId="urn:microsoft.com/office/officeart/2005/8/layout/orgChart1"/>
-    <dgm:cxn modelId="{412F33D7-2C80-4692-A79D-9C91F799AFE1}" type="presParOf" srcId="{70DEB7CB-08A5-4136-87A2-14F65E0B9636}" destId="{B5A94E7C-646E-4C88-AD09-FF09FCF3B788}" srcOrd="0" destOrd="0" presId="urn:microsoft.com/office/officeart/2005/8/layout/orgChart1"/>
-    <dgm:cxn modelId="{E9A47FED-555E-41D1-A359-DCBA9D0D6A8D}" type="presParOf" srcId="{B5A94E7C-646E-4C88-AD09-FF09FCF3B788}" destId="{1FAE0B10-53D1-4F00-A787-57CAA6FC3006}" srcOrd="0" destOrd="0" presId="urn:microsoft.com/office/officeart/2005/8/layout/orgChart1"/>
-    <dgm:cxn modelId="{9812E441-BBC9-4697-B4DA-DB49EF9A3C9E}" type="presParOf" srcId="{B5A94E7C-646E-4C88-AD09-FF09FCF3B788}" destId="{DD85241C-21BB-46C0-B5FA-F8CE985A37F1}" srcOrd="1" destOrd="0" presId="urn:microsoft.com/office/officeart/2005/8/layout/orgChart1"/>
-    <dgm:cxn modelId="{157D387E-24F3-4963-8901-CCAE6A6EF1A9}" type="presParOf" srcId="{70DEB7CB-08A5-4136-87A2-14F65E0B9636}" destId="{96334B99-3C19-4E16-A58C-955CE1451E9D}" srcOrd="1" destOrd="0" presId="urn:microsoft.com/office/officeart/2005/8/layout/orgChart1"/>
-    <dgm:cxn modelId="{A9738595-00EF-49BF-A587-52DD47C4B360}" type="presParOf" srcId="{96334B99-3C19-4E16-A58C-955CE1451E9D}" destId="{F07A4951-120D-4CCB-ACCF-B58815868F71}" srcOrd="0" destOrd="0" presId="urn:microsoft.com/office/officeart/2005/8/layout/orgChart1"/>
-    <dgm:cxn modelId="{A3EABE96-8BC5-497C-8C10-10D36BE968FB}" type="presParOf" srcId="{96334B99-3C19-4E16-A58C-955CE1451E9D}" destId="{C9FD993B-5AB4-43CE-A2BC-9B60460E597B}" srcOrd="1" destOrd="0" presId="urn:microsoft.com/office/officeart/2005/8/layout/orgChart1"/>
-    <dgm:cxn modelId="{6F32D066-44A3-44C6-B8F6-46A7E4A5DB04}" type="presParOf" srcId="{C9FD993B-5AB4-43CE-A2BC-9B60460E597B}" destId="{A062B07C-8A36-4D02-83DD-E440052909AF}" srcOrd="0" destOrd="0" presId="urn:microsoft.com/office/officeart/2005/8/layout/orgChart1"/>
-    <dgm:cxn modelId="{FF41DEA2-E88E-41B2-B186-B5437E49131D}" type="presParOf" srcId="{A062B07C-8A36-4D02-83DD-E440052909AF}" destId="{83B7AEFD-8693-41DA-80C2-8401C00EF59A}" srcOrd="0" destOrd="0" presId="urn:microsoft.com/office/officeart/2005/8/layout/orgChart1"/>
-    <dgm:cxn modelId="{D13ACA0A-2E3A-483A-A7FC-40D2871E434A}" type="presParOf" srcId="{A062B07C-8A36-4D02-83DD-E440052909AF}" destId="{839DC487-41CE-4172-9226-0681D2688C05}" srcOrd="1" destOrd="0" presId="urn:microsoft.com/office/officeart/2005/8/layout/orgChart1"/>
-    <dgm:cxn modelId="{E24FBB52-E32D-43BF-8B3A-2BEB93702D85}" type="presParOf" srcId="{C9FD993B-5AB4-43CE-A2BC-9B60460E597B}" destId="{2AAADD4F-59A9-425F-BBAE-C5D9C6741850}" srcOrd="1" destOrd="0" presId="urn:microsoft.com/office/officeart/2005/8/layout/orgChart1"/>
-    <dgm:cxn modelId="{A7FD63CF-BFD5-4E4B-A0C5-C2F7362EF260}" type="presParOf" srcId="{C9FD993B-5AB4-43CE-A2BC-9B60460E597B}" destId="{810F50A6-DA3C-415A-90EB-FE5F446B430C}" srcOrd="2" destOrd="0" presId="urn:microsoft.com/office/officeart/2005/8/layout/orgChart1"/>
-    <dgm:cxn modelId="{56D47FF5-A8D2-4BAF-AB4F-86511379553F}" type="presParOf" srcId="{96334B99-3C19-4E16-A58C-955CE1451E9D}" destId="{1137C83A-48DC-4503-8F6E-8E99E424D163}" srcOrd="2" destOrd="0" presId="urn:microsoft.com/office/officeart/2005/8/layout/orgChart1"/>
-    <dgm:cxn modelId="{55B23F58-3E4B-4B97-9A61-A48C332AD42E}" type="presParOf" srcId="{96334B99-3C19-4E16-A58C-955CE1451E9D}" destId="{950236DB-B750-4E2C-A9EF-ADC8DCCB9A6C}" srcOrd="3" destOrd="0" presId="urn:microsoft.com/office/officeart/2005/8/layout/orgChart1"/>
-    <dgm:cxn modelId="{CF72132B-8FF3-4362-B06C-2065D96348A2}" type="presParOf" srcId="{950236DB-B750-4E2C-A9EF-ADC8DCCB9A6C}" destId="{6386A00F-9612-4263-A928-2C98944A851C}" srcOrd="0" destOrd="0" presId="urn:microsoft.com/office/officeart/2005/8/layout/orgChart1"/>
-    <dgm:cxn modelId="{025391D6-4CB9-4243-B2E7-CDDB5C4C93C3}" type="presParOf" srcId="{6386A00F-9612-4263-A928-2C98944A851C}" destId="{5A30CFD4-69ED-439B-9C29-7BCE0150D3AC}" srcOrd="0" destOrd="0" presId="urn:microsoft.com/office/officeart/2005/8/layout/orgChart1"/>
-    <dgm:cxn modelId="{E438733D-BF20-4623-B51B-D5798CAE963C}" type="presParOf" srcId="{6386A00F-9612-4263-A928-2C98944A851C}" destId="{8FAAE4F8-2B13-4CE4-944E-7BAD810D8361}" srcOrd="1" destOrd="0" presId="urn:microsoft.com/office/officeart/2005/8/layout/orgChart1"/>
-    <dgm:cxn modelId="{1AF636EB-1B7F-49E5-92DC-0AB8829DE9FD}" type="presParOf" srcId="{950236DB-B750-4E2C-A9EF-ADC8DCCB9A6C}" destId="{BD364BBA-2DCB-4D83-87A7-215ADB1ACF0A}" srcOrd="1" destOrd="0" presId="urn:microsoft.com/office/officeart/2005/8/layout/orgChart1"/>
-    <dgm:cxn modelId="{3ADA9ACD-849E-4BC9-A6AE-EE556B8305AF}" type="presParOf" srcId="{950236DB-B750-4E2C-A9EF-ADC8DCCB9A6C}" destId="{9FF2B8FD-9438-4928-AFDE-371EBC6ABE5A}" srcOrd="2" destOrd="0" presId="urn:microsoft.com/office/officeart/2005/8/layout/orgChart1"/>
-    <dgm:cxn modelId="{B0330AEB-3E02-46C0-AD12-61D163B5AB50}" type="presParOf" srcId="{96334B99-3C19-4E16-A58C-955CE1451E9D}" destId="{804429CE-8EFA-4A90-A7B5-833C09201A96}" srcOrd="4" destOrd="0" presId="urn:microsoft.com/office/officeart/2005/8/layout/orgChart1"/>
-    <dgm:cxn modelId="{798A874A-C08E-49B6-B619-3E56EBDBAA14}" type="presParOf" srcId="{96334B99-3C19-4E16-A58C-955CE1451E9D}" destId="{2E933A33-2D27-4F73-A55A-66A4B8734AC0}" srcOrd="5" destOrd="0" presId="urn:microsoft.com/office/officeart/2005/8/layout/orgChart1"/>
-    <dgm:cxn modelId="{E0F96041-15E8-43F1-BF3F-B68116619773}" type="presParOf" srcId="{2E933A33-2D27-4F73-A55A-66A4B8734AC0}" destId="{B6669788-5BAE-4F5A-AC77-A8B5A44FDDC9}" srcOrd="0" destOrd="0" presId="urn:microsoft.com/office/officeart/2005/8/layout/orgChart1"/>
-    <dgm:cxn modelId="{16BD8B6B-C4C0-4376-A940-4C2B30A5F4D2}" type="presParOf" srcId="{B6669788-5BAE-4F5A-AC77-A8B5A44FDDC9}" destId="{51F73CD7-B4CB-43AB-8BD0-8C8DA48C01DE}" srcOrd="0" destOrd="0" presId="urn:microsoft.com/office/officeart/2005/8/layout/orgChart1"/>
-    <dgm:cxn modelId="{E20D16EC-804B-4BE0-BFA1-E4A435E5BC64}" type="presParOf" srcId="{B6669788-5BAE-4F5A-AC77-A8B5A44FDDC9}" destId="{B92986A6-936D-4BC7-94A8-5B5A7875B901}" srcOrd="1" destOrd="0" presId="urn:microsoft.com/office/officeart/2005/8/layout/orgChart1"/>
-    <dgm:cxn modelId="{88F83E35-4F98-4A9E-8685-4B909D59E01C}" type="presParOf" srcId="{2E933A33-2D27-4F73-A55A-66A4B8734AC0}" destId="{2787FAF1-B3DF-4933-8144-82908584834A}" srcOrd="1" destOrd="0" presId="urn:microsoft.com/office/officeart/2005/8/layout/orgChart1"/>
-    <dgm:cxn modelId="{EDD97229-28C9-477E-8C82-6B31E5FA5969}" type="presParOf" srcId="{2E933A33-2D27-4F73-A55A-66A4B8734AC0}" destId="{6D312F44-437B-4DF2-B7E3-3614BD2C1BFA}" srcOrd="2" destOrd="0" presId="urn:microsoft.com/office/officeart/2005/8/layout/orgChart1"/>
-    <dgm:cxn modelId="{375625F6-4FF3-44CA-A75B-98B6F9F60DF3}" type="presParOf" srcId="{70DEB7CB-08A5-4136-87A2-14F65E0B9636}" destId="{C8AFEB61-DC1E-4504-8C22-293B00FD6F61}" srcOrd="2" destOrd="0" presId="urn:microsoft.com/office/officeart/2005/8/layout/orgChart1"/>
-    <dgm:cxn modelId="{4BBDB66A-75D9-41A3-AF2C-8981CF40FB08}" type="presParOf" srcId="{C8AFEB61-DC1E-4504-8C22-293B00FD6F61}" destId="{903CF136-3FEC-4AEC-AC75-C1584694D44C}" srcOrd="0" destOrd="0" presId="urn:microsoft.com/office/officeart/2005/8/layout/orgChart1"/>
-    <dgm:cxn modelId="{98912010-0189-4AA6-8CE8-AC15DB6396C4}" type="presParOf" srcId="{C8AFEB61-DC1E-4504-8C22-293B00FD6F61}" destId="{54B13A93-E54C-436B-94BD-6F2AAA231C30}" srcOrd="1" destOrd="0" presId="urn:microsoft.com/office/officeart/2005/8/layout/orgChart1"/>
-    <dgm:cxn modelId="{A75A7645-344E-4628-BB70-813B0E3B4479}" type="presParOf" srcId="{54B13A93-E54C-436B-94BD-6F2AAA231C30}" destId="{892CDF0D-60EC-4A8C-A5F7-4478155C658E}" srcOrd="0" destOrd="0" presId="urn:microsoft.com/office/officeart/2005/8/layout/orgChart1"/>
-    <dgm:cxn modelId="{FA968D52-76BB-4548-ABAB-D49CC43CA339}" type="presParOf" srcId="{892CDF0D-60EC-4A8C-A5F7-4478155C658E}" destId="{ECD542CF-E888-4ADA-B3B1-12D9CC2A0E7D}" srcOrd="0" destOrd="0" presId="urn:microsoft.com/office/officeart/2005/8/layout/orgChart1"/>
-    <dgm:cxn modelId="{08EF1EB4-8E4A-42B2-B71B-C14DD555EDB3}" type="presParOf" srcId="{892CDF0D-60EC-4A8C-A5F7-4478155C658E}" destId="{2368711F-B425-447F-BF69-C2481281C627}" srcOrd="1" destOrd="0" presId="urn:microsoft.com/office/officeart/2005/8/layout/orgChart1"/>
-    <dgm:cxn modelId="{58C61C06-A2B3-41B7-AC63-A8AE319D7E4E}" type="presParOf" srcId="{54B13A93-E54C-436B-94BD-6F2AAA231C30}" destId="{37A82D73-41BA-4ADD-B0B0-9795D69599F8}" srcOrd="1" destOrd="0" presId="urn:microsoft.com/office/officeart/2005/8/layout/orgChart1"/>
-    <dgm:cxn modelId="{63414C36-140D-4750-8459-F8F4F073C571}" type="presParOf" srcId="{54B13A93-E54C-436B-94BD-6F2AAA231C30}" destId="{D42FC9D1-5325-4E3F-BC6A-3AE5A0C8D443}" srcOrd="2" destOrd="0" presId="urn:microsoft.com/office/officeart/2005/8/layout/orgChart1"/>
+    <dgm:cxn modelId="{1DD5C502-DC7F-4552-8BDC-6CF468D495F4}" type="presOf" srcId="{BE715D28-76E8-44D5-B883-3B88F1AF8440}" destId="{B105B187-3854-4DF5-A17C-B41D5BE74AAD}" srcOrd="0" destOrd="0" presId="urn:microsoft.com/office/officeart/2005/8/layout/orgChart1"/>
+    <dgm:cxn modelId="{417AA52B-1B4A-4816-B618-590C3208ABA0}" type="presOf" srcId="{247E199E-132F-4E4C-917D-42BE501F8AC9}" destId="{D1685D93-3F6A-43FF-86EC-C738141BAD52}" srcOrd="0" destOrd="0" presId="urn:microsoft.com/office/officeart/2005/8/layout/orgChart1"/>
+    <dgm:cxn modelId="{16D0E335-4433-4F99-B4F0-8544DE2E7FF7}" type="presOf" srcId="{91EB4208-6407-49A8-B19C-E4E9EED42FEE}" destId="{4D729DC9-BC50-49CF-8A3B-37EE80A89E92}" srcOrd="0" destOrd="0" presId="urn:microsoft.com/office/officeart/2005/8/layout/orgChart1"/>
+    <dgm:cxn modelId="{456B1F6C-6C74-4241-81C5-667A5581BA22}" type="presOf" srcId="{B07E297B-8BC0-45E0-A905-4F45524705FE}" destId="{678EFB24-5F7A-44DE-80EA-FC9FC2BAC2D3}" srcOrd="0" destOrd="0" presId="urn:microsoft.com/office/officeart/2005/8/layout/orgChart1"/>
+    <dgm:cxn modelId="{0D4FB87F-EA6E-4F56-9EEA-68F011B43E9E}" srcId="{91EB4208-6407-49A8-B19C-E4E9EED42FEE}" destId="{247E199E-132F-4E4C-917D-42BE501F8AC9}" srcOrd="1" destOrd="0" parTransId="{B07E297B-8BC0-45E0-A905-4F45524705FE}" sibTransId="{1AE8F3CA-33AC-4B51-B7DA-F78533B48540}"/>
+    <dgm:cxn modelId="{B0AB8583-9805-4302-86DF-8FAF787BAEBE}" type="presOf" srcId="{247E199E-132F-4E4C-917D-42BE501F8AC9}" destId="{8FCD05FC-0CF3-41A0-B582-926209CFF079}" srcOrd="1" destOrd="0" presId="urn:microsoft.com/office/officeart/2005/8/layout/orgChart1"/>
+    <dgm:cxn modelId="{FAB8D784-0CF9-415B-B555-AE5B45500F58}" type="presOf" srcId="{AC85848F-0054-4016-AC3C-DDCBBBADF8E9}" destId="{E2C8D3AD-BFB1-4ABF-A92C-FB6B0975136A}" srcOrd="0" destOrd="0" presId="urn:microsoft.com/office/officeart/2005/8/layout/orgChart1"/>
+    <dgm:cxn modelId="{84BCD888-A731-4FF0-8A70-6736AA4E7213}" srcId="{91EB4208-6407-49A8-B19C-E4E9EED42FEE}" destId="{9A3C1975-2DDB-46D1-9142-15F1EA44AAB8}" srcOrd="0" destOrd="0" parTransId="{BE715D28-76E8-44D5-B883-3B88F1AF8440}" sibTransId="{509C8C66-0483-4BA2-8469-557AB7301D22}"/>
+    <dgm:cxn modelId="{569B2589-04D4-4940-84BC-9F9463B13DDE}" type="presOf" srcId="{9A3C1975-2DDB-46D1-9142-15F1EA44AAB8}" destId="{9DE59E76-F6E4-4A94-8837-95224FFF5FF3}" srcOrd="1" destOrd="0" presId="urn:microsoft.com/office/officeart/2005/8/layout/orgChart1"/>
+    <dgm:cxn modelId="{F17865D4-746E-41A9-AE86-65B3371A7DDF}" type="presOf" srcId="{9A3C1975-2DDB-46D1-9142-15F1EA44AAB8}" destId="{D8896A8E-3003-4CF9-A755-5B0DD72E0DF8}" srcOrd="0" destOrd="0" presId="urn:microsoft.com/office/officeart/2005/8/layout/orgChart1"/>
+    <dgm:cxn modelId="{FF9A65E7-3F7A-4C66-88DF-DA0C57D41BDD}" type="presOf" srcId="{91EB4208-6407-49A8-B19C-E4E9EED42FEE}" destId="{A68C7E3D-A4B5-487E-B335-0EB75D835432}" srcOrd="1" destOrd="0" presId="urn:microsoft.com/office/officeart/2005/8/layout/orgChart1"/>
+    <dgm:cxn modelId="{61DCCDEB-D279-431A-B7C4-8967500D5F08}" srcId="{AC85848F-0054-4016-AC3C-DDCBBBADF8E9}" destId="{91EB4208-6407-49A8-B19C-E4E9EED42FEE}" srcOrd="0" destOrd="0" parTransId="{F1C8C867-427D-4FBF-BAF9-7C814F9CB52F}" sibTransId="{103ECFE5-FAC7-4BAD-88A7-0C15AE09AEE6}"/>
+    <dgm:cxn modelId="{566D8323-99C7-42B4-9E25-C6715D79D958}" type="presParOf" srcId="{E2C8D3AD-BFB1-4ABF-A92C-FB6B0975136A}" destId="{1DBAB025-8949-43C5-9A58-FD11B4E79A87}" srcOrd="0" destOrd="0" presId="urn:microsoft.com/office/officeart/2005/8/layout/orgChart1"/>
+    <dgm:cxn modelId="{CD12A702-0946-4779-B51F-96A4A89B35F0}" type="presParOf" srcId="{1DBAB025-8949-43C5-9A58-FD11B4E79A87}" destId="{70444FD1-8234-4D98-AA3A-C17BD1AF9543}" srcOrd="0" destOrd="0" presId="urn:microsoft.com/office/officeart/2005/8/layout/orgChart1"/>
+    <dgm:cxn modelId="{1C653D46-F5B9-4E48-BC01-683B1453FE10}" type="presParOf" srcId="{70444FD1-8234-4D98-AA3A-C17BD1AF9543}" destId="{4D729DC9-BC50-49CF-8A3B-37EE80A89E92}" srcOrd="0" destOrd="0" presId="urn:microsoft.com/office/officeart/2005/8/layout/orgChart1"/>
+    <dgm:cxn modelId="{69CFA004-23EC-4C18-8561-A87CEF3AE109}" type="presParOf" srcId="{70444FD1-8234-4D98-AA3A-C17BD1AF9543}" destId="{A68C7E3D-A4B5-487E-B335-0EB75D835432}" srcOrd="1" destOrd="0" presId="urn:microsoft.com/office/officeart/2005/8/layout/orgChart1"/>
+    <dgm:cxn modelId="{52A6BBC4-EB15-48B4-B26B-E2FF72BD70A7}" type="presParOf" srcId="{1DBAB025-8949-43C5-9A58-FD11B4E79A87}" destId="{5CBC965F-73D1-42C3-BC23-1EDBD795361C}" srcOrd="1" destOrd="0" presId="urn:microsoft.com/office/officeart/2005/8/layout/orgChart1"/>
+    <dgm:cxn modelId="{CC7558B5-4715-4556-A520-B2FB7F787AE0}" type="presParOf" srcId="{1DBAB025-8949-43C5-9A58-FD11B4E79A87}" destId="{D4A1D123-8E43-40FD-BF7D-DAB66A37144F}" srcOrd="2" destOrd="0" presId="urn:microsoft.com/office/officeart/2005/8/layout/orgChart1"/>
+    <dgm:cxn modelId="{37624BEA-9D0A-46B9-AE12-6CD2E9BD1662}" type="presParOf" srcId="{D4A1D123-8E43-40FD-BF7D-DAB66A37144F}" destId="{B105B187-3854-4DF5-A17C-B41D5BE74AAD}" srcOrd="0" destOrd="0" presId="urn:microsoft.com/office/officeart/2005/8/layout/orgChart1"/>
+    <dgm:cxn modelId="{F133129E-B5EF-4440-AAD1-652EB4A194C8}" type="presParOf" srcId="{D4A1D123-8E43-40FD-BF7D-DAB66A37144F}" destId="{90704B15-40AB-4CA7-9021-CF55E82CC937}" srcOrd="1" destOrd="0" presId="urn:microsoft.com/office/officeart/2005/8/layout/orgChart1"/>
+    <dgm:cxn modelId="{1A258890-3665-454C-92E1-1C3599D96B02}" type="presParOf" srcId="{90704B15-40AB-4CA7-9021-CF55E82CC937}" destId="{28A4F74A-4787-4960-A140-541DD77BBFBF}" srcOrd="0" destOrd="0" presId="urn:microsoft.com/office/officeart/2005/8/layout/orgChart1"/>
+    <dgm:cxn modelId="{9BE85DE3-4697-4BFB-ADBF-56A11F329535}" type="presParOf" srcId="{28A4F74A-4787-4960-A140-541DD77BBFBF}" destId="{D8896A8E-3003-4CF9-A755-5B0DD72E0DF8}" srcOrd="0" destOrd="0" presId="urn:microsoft.com/office/officeart/2005/8/layout/orgChart1"/>
+    <dgm:cxn modelId="{E0430A04-DB7D-486A-8F33-5995F03363BD}" type="presParOf" srcId="{28A4F74A-4787-4960-A140-541DD77BBFBF}" destId="{9DE59E76-F6E4-4A94-8837-95224FFF5FF3}" srcOrd="1" destOrd="0" presId="urn:microsoft.com/office/officeart/2005/8/layout/orgChart1"/>
+    <dgm:cxn modelId="{7414665B-5392-4DC5-B363-CF1D155A8FFF}" type="presParOf" srcId="{90704B15-40AB-4CA7-9021-CF55E82CC937}" destId="{8A6C3457-074D-454C-9338-D5A69FF859DF}" srcOrd="1" destOrd="0" presId="urn:microsoft.com/office/officeart/2005/8/layout/orgChart1"/>
+    <dgm:cxn modelId="{B214C9F1-D9D4-48A0-A873-0B1FF63B394F}" type="presParOf" srcId="{90704B15-40AB-4CA7-9021-CF55E82CC937}" destId="{91D44395-94BE-4D6F-9D5C-04AD0BD000C3}" srcOrd="2" destOrd="0" presId="urn:microsoft.com/office/officeart/2005/8/layout/orgChart1"/>
+    <dgm:cxn modelId="{EFA7C1CA-D26F-4FD4-B326-187EDC5D7E45}" type="presParOf" srcId="{D4A1D123-8E43-40FD-BF7D-DAB66A37144F}" destId="{678EFB24-5F7A-44DE-80EA-FC9FC2BAC2D3}" srcOrd="2" destOrd="0" presId="urn:microsoft.com/office/officeart/2005/8/layout/orgChart1"/>
+    <dgm:cxn modelId="{1E1BE3F9-D830-4ED4-AC2E-C3A07E8711AA}" type="presParOf" srcId="{D4A1D123-8E43-40FD-BF7D-DAB66A37144F}" destId="{C3F720FC-BCC6-4910-9B11-E7E7292AF7DE}" srcOrd="3" destOrd="0" presId="urn:microsoft.com/office/officeart/2005/8/layout/orgChart1"/>
+    <dgm:cxn modelId="{3DB2A6DE-D9BD-48E5-8DB9-9698A9F17CFA}" type="presParOf" srcId="{C3F720FC-BCC6-4910-9B11-E7E7292AF7DE}" destId="{B35F27E6-2AB8-49B5-9556-0590930A5194}" srcOrd="0" destOrd="0" presId="urn:microsoft.com/office/officeart/2005/8/layout/orgChart1"/>
+    <dgm:cxn modelId="{1AA08629-13F4-44E5-87F6-91D3D91D149A}" type="presParOf" srcId="{B35F27E6-2AB8-49B5-9556-0590930A5194}" destId="{D1685D93-3F6A-43FF-86EC-C738141BAD52}" srcOrd="0" destOrd="0" presId="urn:microsoft.com/office/officeart/2005/8/layout/orgChart1"/>
+    <dgm:cxn modelId="{C7840BEF-8F2B-4CF6-A59C-3E41F468E556}" type="presParOf" srcId="{B35F27E6-2AB8-49B5-9556-0590930A5194}" destId="{8FCD05FC-0CF3-41A0-B582-926209CFF079}" srcOrd="1" destOrd="0" presId="urn:microsoft.com/office/officeart/2005/8/layout/orgChart1"/>
+    <dgm:cxn modelId="{5AE17607-ED78-4F36-8F5E-CAB5FB299F6C}" type="presParOf" srcId="{C3F720FC-BCC6-4910-9B11-E7E7292AF7DE}" destId="{3F093837-28CB-448F-9FD9-9D7CBEC92C0C}" srcOrd="1" destOrd="0" presId="urn:microsoft.com/office/officeart/2005/8/layout/orgChart1"/>
+    <dgm:cxn modelId="{52F1617A-B78F-466E-8DD8-D84B9104B296}" type="presParOf" srcId="{C3F720FC-BCC6-4910-9B11-E7E7292AF7DE}" destId="{309983C2-0714-4398-BB45-6F844D3814C6}" srcOrd="2" destOrd="0" presId="urn:microsoft.com/office/officeart/2005/8/layout/orgChart1"/>
   </dgm:cxnLst>
   <dgm:bg/>
   <dgm:whole/>
@@ -4672,15 +4507,15 @@
       <dsp:cNvGrpSpPr/>
     </dsp:nvGrpSpPr>
     <dsp:grpSpPr/>
-    <dsp:sp modelId="{903CF136-3FEC-4AEC-AC75-C1584694D44C}">
+    <dsp:sp modelId="{678EFB24-5F7A-44DE-80EA-FC9FC2BAC2D3}">
       <dsp:nvSpPr>
         <dsp:cNvPr id="0" name=""/>
         <dsp:cNvSpPr/>
       </dsp:nvSpPr>
       <dsp:spPr>
         <a:xfrm>
-          <a:off x="2145650" y="756735"/>
-          <a:ext cx="140349" cy="614864"/>
+          <a:off x="2286000" y="1154483"/>
+          <a:ext cx="217116" cy="951179"/>
         </a:xfrm>
         <a:custGeom>
           <a:avLst/>
@@ -4691,13 +4526,13 @@
           <a:pathLst>
             <a:path>
               <a:moveTo>
-                <a:pt x="140349" y="0"/>
+                <a:pt x="0" y="0"/>
               </a:moveTo>
               <a:lnTo>
-                <a:pt x="140349" y="614864"/>
+                <a:pt x="0" y="951179"/>
               </a:lnTo>
               <a:lnTo>
-                <a:pt x="0" y="614864"/>
+                <a:pt x="217116" y="951179"/>
               </a:lnTo>
             </a:path>
           </a:pathLst>
@@ -4731,15 +4566,15 @@
         <a:fontRef idx="minor"/>
       </dsp:style>
     </dsp:sp>
-    <dsp:sp modelId="{804429CE-8EFA-4A90-A7B5-833C09201A96}">
+    <dsp:sp modelId="{B105B187-3854-4DF5-A17C-B41D5BE74AAD}">
       <dsp:nvSpPr>
         <dsp:cNvPr id="0" name=""/>
         <dsp:cNvSpPr/>
       </dsp:nvSpPr>
       <dsp:spPr>
         <a:xfrm>
-          <a:off x="2286000" y="756735"/>
-          <a:ext cx="1617361" cy="1229729"/>
+          <a:off x="2068883" y="1154483"/>
+          <a:ext cx="217116" cy="951179"/>
         </a:xfrm>
         <a:custGeom>
           <a:avLst/>
@@ -4750,16 +4585,13 @@
           <a:pathLst>
             <a:path>
               <a:moveTo>
-                <a:pt x="0" y="0"/>
+                <a:pt x="217116" y="0"/>
               </a:moveTo>
               <a:lnTo>
-                <a:pt x="0" y="1089380"/>
+                <a:pt x="217116" y="951179"/>
               </a:lnTo>
               <a:lnTo>
-                <a:pt x="1617361" y="1089380"/>
-              </a:lnTo>
-              <a:lnTo>
-                <a:pt x="1617361" y="1229729"/>
+                <a:pt x="0" y="951179"/>
               </a:lnTo>
             </a:path>
           </a:pathLst>
@@ -4793,133 +4625,15 @@
         <a:fontRef idx="minor"/>
       </dsp:style>
     </dsp:sp>
-    <dsp:sp modelId="{1137C83A-48DC-4503-8F6E-8E99E424D163}">
+    <dsp:sp modelId="{4D729DC9-BC50-49CF-8A3B-37EE80A89E92}">
       <dsp:nvSpPr>
         <dsp:cNvPr id="0" name=""/>
         <dsp:cNvSpPr/>
       </dsp:nvSpPr>
       <dsp:spPr>
         <a:xfrm>
-          <a:off x="2240280" y="756735"/>
-          <a:ext cx="91440" cy="1229729"/>
-        </a:xfrm>
-        <a:custGeom>
-          <a:avLst/>
-          <a:gdLst/>
-          <a:ahLst/>
-          <a:cxnLst/>
-          <a:rect l="0" t="0" r="0" b="0"/>
-          <a:pathLst>
-            <a:path>
-              <a:moveTo>
-                <a:pt x="45720" y="0"/>
-              </a:moveTo>
-              <a:lnTo>
-                <a:pt x="45720" y="1229729"/>
-              </a:lnTo>
-            </a:path>
-          </a:pathLst>
-        </a:custGeom>
-        <a:noFill/>
-        <a:ln w="12700" cap="flat" cmpd="sng" algn="ctr">
-          <a:solidFill>
-            <a:schemeClr val="accent1">
-              <a:shade val="60000"/>
-              <a:hueOff val="0"/>
-              <a:satOff val="0"/>
-              <a:lumOff val="0"/>
-              <a:alphaOff val="0"/>
-            </a:schemeClr>
-          </a:solidFill>
-          <a:prstDash val="solid"/>
-          <a:miter lim="800000"/>
-        </a:ln>
-        <a:effectLst/>
-      </dsp:spPr>
-      <dsp:style>
-        <a:lnRef idx="2">
-          <a:scrgbClr r="0" g="0" b="0"/>
-        </a:lnRef>
-        <a:fillRef idx="0">
-          <a:scrgbClr r="0" g="0" b="0"/>
-        </a:fillRef>
-        <a:effectRef idx="0">
-          <a:scrgbClr r="0" g="0" b="0"/>
-        </a:effectRef>
-        <a:fontRef idx="minor"/>
-      </dsp:style>
-    </dsp:sp>
-    <dsp:sp modelId="{F07A4951-120D-4CCB-ACCF-B58815868F71}">
-      <dsp:nvSpPr>
-        <dsp:cNvPr id="0" name=""/>
-        <dsp:cNvSpPr/>
-      </dsp:nvSpPr>
-      <dsp:spPr>
-        <a:xfrm>
-          <a:off x="668638" y="756735"/>
-          <a:ext cx="1617361" cy="1229729"/>
-        </a:xfrm>
-        <a:custGeom>
-          <a:avLst/>
-          <a:gdLst/>
-          <a:ahLst/>
-          <a:cxnLst/>
-          <a:rect l="0" t="0" r="0" b="0"/>
-          <a:pathLst>
-            <a:path>
-              <a:moveTo>
-                <a:pt x="1617361" y="0"/>
-              </a:moveTo>
-              <a:lnTo>
-                <a:pt x="1617361" y="1089380"/>
-              </a:lnTo>
-              <a:lnTo>
-                <a:pt x="0" y="1089380"/>
-              </a:lnTo>
-              <a:lnTo>
-                <a:pt x="0" y="1229729"/>
-              </a:lnTo>
-            </a:path>
-          </a:pathLst>
-        </a:custGeom>
-        <a:noFill/>
-        <a:ln w="12700" cap="flat" cmpd="sng" algn="ctr">
-          <a:solidFill>
-            <a:schemeClr val="accent1">
-              <a:shade val="60000"/>
-              <a:hueOff val="0"/>
-              <a:satOff val="0"/>
-              <a:lumOff val="0"/>
-              <a:alphaOff val="0"/>
-            </a:schemeClr>
-          </a:solidFill>
-          <a:prstDash val="solid"/>
-          <a:miter lim="800000"/>
-        </a:ln>
-        <a:effectLst/>
-      </dsp:spPr>
-      <dsp:style>
-        <a:lnRef idx="2">
-          <a:scrgbClr r="0" g="0" b="0"/>
-        </a:lnRef>
-        <a:fillRef idx="0">
-          <a:scrgbClr r="0" g="0" b="0"/>
-        </a:fillRef>
-        <a:effectRef idx="0">
-          <a:scrgbClr r="0" g="0" b="0"/>
-        </a:effectRef>
-        <a:fontRef idx="minor"/>
-      </dsp:style>
-    </dsp:sp>
-    <dsp:sp modelId="{1FAE0B10-53D1-4F00-A787-57CAA6FC3006}">
-      <dsp:nvSpPr>
-        <dsp:cNvPr id="0" name=""/>
-        <dsp:cNvSpPr/>
-      </dsp:nvSpPr>
-      <dsp:spPr>
-        <a:xfrm>
-          <a:off x="1617668" y="88403"/>
-          <a:ext cx="1336662" cy="668331"/>
+          <a:off x="1252109" y="120592"/>
+          <a:ext cx="2067780" cy="1033890"/>
         </a:xfrm>
         <a:prstGeom prst="rect">
           <a:avLst/>
@@ -4961,12 +4675,12 @@
         </a:fontRef>
       </dsp:style>
       <dsp:txBody>
-        <a:bodyPr spcFirstLastPara="0" vert="horz" wrap="square" lIns="27305" tIns="27305" rIns="27305" bIns="27305" numCol="1" spcCol="1270" anchor="ctr" anchorCtr="0">
+        <a:bodyPr spcFirstLastPara="0" vert="horz" wrap="square" lIns="16510" tIns="16510" rIns="16510" bIns="16510" numCol="1" spcCol="1270" anchor="ctr" anchorCtr="0">
           <a:noAutofit/>
         </a:bodyPr>
         <a:lstStyle/>
         <a:p>
-          <a:pPr marL="0" lvl="0" indent="0" algn="ctr" defTabSz="1911350">
+          <a:pPr marL="0" lvl="0" indent="0" algn="ctr" defTabSz="1155700">
             <a:lnSpc>
               <a:spcPct val="90000"/>
             </a:lnSpc>
@@ -4978,23 +4692,26 @@
             </a:spcAft>
             <a:buNone/>
           </a:pPr>
-          <a:endParaRPr lang="en-US" sz="4300" kern="1200"/>
+          <a:r>
+            <a:rPr lang="en-US" sz="2600" kern="1200"/>
+            <a:t>GameManager</a:t>
+          </a:r>
         </a:p>
       </dsp:txBody>
       <dsp:txXfrm>
-        <a:off x="1617668" y="88403"/>
-        <a:ext cx="1336662" cy="668331"/>
+        <a:off x="1252109" y="120592"/>
+        <a:ext cx="2067780" cy="1033890"/>
       </dsp:txXfrm>
     </dsp:sp>
-    <dsp:sp modelId="{83B7AEFD-8693-41DA-80C2-8401C00EF59A}">
+    <dsp:sp modelId="{D8896A8E-3003-4CF9-A755-5B0DD72E0DF8}">
       <dsp:nvSpPr>
         <dsp:cNvPr id="0" name=""/>
         <dsp:cNvSpPr/>
       </dsp:nvSpPr>
       <dsp:spPr>
         <a:xfrm>
-          <a:off x="306" y="1986464"/>
-          <a:ext cx="1336662" cy="668331"/>
+          <a:off x="1102" y="1588716"/>
+          <a:ext cx="2067780" cy="1033890"/>
         </a:xfrm>
         <a:prstGeom prst="rect">
           <a:avLst/>
@@ -5036,12 +4753,12 @@
         </a:fontRef>
       </dsp:style>
       <dsp:txBody>
-        <a:bodyPr spcFirstLastPara="0" vert="horz" wrap="square" lIns="27305" tIns="27305" rIns="27305" bIns="27305" numCol="1" spcCol="1270" anchor="ctr" anchorCtr="0">
+        <a:bodyPr spcFirstLastPara="0" vert="horz" wrap="square" lIns="16510" tIns="16510" rIns="16510" bIns="16510" numCol="1" spcCol="1270" anchor="ctr" anchorCtr="0">
           <a:noAutofit/>
         </a:bodyPr>
         <a:lstStyle/>
         <a:p>
-          <a:pPr marL="0" lvl="0" indent="0" algn="ctr" defTabSz="1911350">
+          <a:pPr marL="0" lvl="0" indent="0" algn="ctr" defTabSz="1155700">
             <a:lnSpc>
               <a:spcPct val="90000"/>
             </a:lnSpc>
@@ -5053,23 +4770,26 @@
             </a:spcAft>
             <a:buNone/>
           </a:pPr>
-          <a:endParaRPr lang="en-US" sz="4300" kern="1200"/>
+          <a:r>
+            <a:rPr lang="en-US" sz="2600" kern="1200"/>
+            <a:t>BaseObject[]</a:t>
+          </a:r>
         </a:p>
       </dsp:txBody>
       <dsp:txXfrm>
-        <a:off x="306" y="1986464"/>
-        <a:ext cx="1336662" cy="668331"/>
+        <a:off x="1102" y="1588716"/>
+        <a:ext cx="2067780" cy="1033890"/>
       </dsp:txXfrm>
     </dsp:sp>
-    <dsp:sp modelId="{5A30CFD4-69ED-439B-9C29-7BCE0150D3AC}">
+    <dsp:sp modelId="{D1685D93-3F6A-43FF-86EC-C738141BAD52}">
       <dsp:nvSpPr>
         <dsp:cNvPr id="0" name=""/>
         <dsp:cNvSpPr/>
       </dsp:nvSpPr>
       <dsp:spPr>
         <a:xfrm>
-          <a:off x="1617668" y="1986464"/>
-          <a:ext cx="1336662" cy="668331"/>
+          <a:off x="2503116" y="1588716"/>
+          <a:ext cx="2067780" cy="1033890"/>
         </a:xfrm>
         <a:prstGeom prst="rect">
           <a:avLst/>
@@ -5111,12 +4831,12 @@
         </a:fontRef>
       </dsp:style>
       <dsp:txBody>
-        <a:bodyPr spcFirstLastPara="0" vert="horz" wrap="square" lIns="27305" tIns="27305" rIns="27305" bIns="27305" numCol="1" spcCol="1270" anchor="ctr" anchorCtr="0">
+        <a:bodyPr spcFirstLastPara="0" vert="horz" wrap="square" lIns="16510" tIns="16510" rIns="16510" bIns="16510" numCol="1" spcCol="1270" anchor="ctr" anchorCtr="0">
           <a:noAutofit/>
         </a:bodyPr>
         <a:lstStyle/>
         <a:p>
-          <a:pPr marL="0" lvl="0" indent="0" algn="ctr" defTabSz="1911350">
+          <a:pPr marL="0" lvl="0" indent="0" algn="ctr" defTabSz="1155700">
             <a:lnSpc>
               <a:spcPct val="90000"/>
             </a:lnSpc>
@@ -5128,162 +4848,15 @@
             </a:spcAft>
             <a:buNone/>
           </a:pPr>
-          <a:endParaRPr lang="en-US" sz="4300" kern="1200"/>
+          <a:r>
+            <a:rPr lang="en-US" sz="2600" kern="1200"/>
+            <a:t>grid[]</a:t>
+          </a:r>
         </a:p>
       </dsp:txBody>
       <dsp:txXfrm>
-        <a:off x="1617668" y="1986464"/>
-        <a:ext cx="1336662" cy="668331"/>
-      </dsp:txXfrm>
-    </dsp:sp>
-    <dsp:sp modelId="{51F73CD7-B4CB-43AB-8BD0-8C8DA48C01DE}">
-      <dsp:nvSpPr>
-        <dsp:cNvPr id="0" name=""/>
-        <dsp:cNvSpPr/>
-      </dsp:nvSpPr>
-      <dsp:spPr>
-        <a:xfrm>
-          <a:off x="3235030" y="1986464"/>
-          <a:ext cx="1336662" cy="668331"/>
-        </a:xfrm>
-        <a:prstGeom prst="rect">
-          <a:avLst/>
-        </a:prstGeom>
-        <a:solidFill>
-          <a:schemeClr val="accent1">
-            <a:hueOff val="0"/>
-            <a:satOff val="0"/>
-            <a:lumOff val="0"/>
-            <a:alphaOff val="0"/>
-          </a:schemeClr>
-        </a:solidFill>
-        <a:ln w="12700" cap="flat" cmpd="sng" algn="ctr">
-          <a:solidFill>
-            <a:schemeClr val="lt1">
-              <a:hueOff val="0"/>
-              <a:satOff val="0"/>
-              <a:lumOff val="0"/>
-              <a:alphaOff val="0"/>
-            </a:schemeClr>
-          </a:solidFill>
-          <a:prstDash val="solid"/>
-          <a:miter lim="800000"/>
-        </a:ln>
-        <a:effectLst/>
-      </dsp:spPr>
-      <dsp:style>
-        <a:lnRef idx="2">
-          <a:scrgbClr r="0" g="0" b="0"/>
-        </a:lnRef>
-        <a:fillRef idx="1">
-          <a:scrgbClr r="0" g="0" b="0"/>
-        </a:fillRef>
-        <a:effectRef idx="0">
-          <a:scrgbClr r="0" g="0" b="0"/>
-        </a:effectRef>
-        <a:fontRef idx="minor">
-          <a:schemeClr val="lt1"/>
-        </a:fontRef>
-      </dsp:style>
-      <dsp:txBody>
-        <a:bodyPr spcFirstLastPara="0" vert="horz" wrap="square" lIns="27305" tIns="27305" rIns="27305" bIns="27305" numCol="1" spcCol="1270" anchor="ctr" anchorCtr="0">
-          <a:noAutofit/>
-        </a:bodyPr>
-        <a:lstStyle/>
-        <a:p>
-          <a:pPr marL="0" lvl="0" indent="0" algn="ctr" defTabSz="1911350">
-            <a:lnSpc>
-              <a:spcPct val="90000"/>
-            </a:lnSpc>
-            <a:spcBef>
-              <a:spcPct val="0"/>
-            </a:spcBef>
-            <a:spcAft>
-              <a:spcPct val="35000"/>
-            </a:spcAft>
-            <a:buNone/>
-          </a:pPr>
-          <a:endParaRPr lang="en-US" sz="4300" kern="1200"/>
-        </a:p>
-      </dsp:txBody>
-      <dsp:txXfrm>
-        <a:off x="3235030" y="1986464"/>
-        <a:ext cx="1336662" cy="668331"/>
-      </dsp:txXfrm>
-    </dsp:sp>
-    <dsp:sp modelId="{ECD542CF-E888-4ADA-B3B1-12D9CC2A0E7D}">
-      <dsp:nvSpPr>
-        <dsp:cNvPr id="0" name=""/>
-        <dsp:cNvSpPr/>
-      </dsp:nvSpPr>
-      <dsp:spPr>
-        <a:xfrm>
-          <a:off x="808987" y="1037434"/>
-          <a:ext cx="1336662" cy="668331"/>
-        </a:xfrm>
-        <a:prstGeom prst="rect">
-          <a:avLst/>
-        </a:prstGeom>
-        <a:solidFill>
-          <a:schemeClr val="accent1">
-            <a:hueOff val="0"/>
-            <a:satOff val="0"/>
-            <a:lumOff val="0"/>
-            <a:alphaOff val="0"/>
-          </a:schemeClr>
-        </a:solidFill>
-        <a:ln w="12700" cap="flat" cmpd="sng" algn="ctr">
-          <a:solidFill>
-            <a:schemeClr val="lt1">
-              <a:hueOff val="0"/>
-              <a:satOff val="0"/>
-              <a:lumOff val="0"/>
-              <a:alphaOff val="0"/>
-            </a:schemeClr>
-          </a:solidFill>
-          <a:prstDash val="solid"/>
-          <a:miter lim="800000"/>
-        </a:ln>
-        <a:effectLst/>
-      </dsp:spPr>
-      <dsp:style>
-        <a:lnRef idx="2">
-          <a:scrgbClr r="0" g="0" b="0"/>
-        </a:lnRef>
-        <a:fillRef idx="1">
-          <a:scrgbClr r="0" g="0" b="0"/>
-        </a:fillRef>
-        <a:effectRef idx="0">
-          <a:scrgbClr r="0" g="0" b="0"/>
-        </a:effectRef>
-        <a:fontRef idx="minor">
-          <a:schemeClr val="lt1"/>
-        </a:fontRef>
-      </dsp:style>
-      <dsp:txBody>
-        <a:bodyPr spcFirstLastPara="0" vert="horz" wrap="square" lIns="27305" tIns="27305" rIns="27305" bIns="27305" numCol="1" spcCol="1270" anchor="ctr" anchorCtr="0">
-          <a:noAutofit/>
-        </a:bodyPr>
-        <a:lstStyle/>
-        <a:p>
-          <a:pPr marL="0" lvl="0" indent="0" algn="ctr" defTabSz="1911350">
-            <a:lnSpc>
-              <a:spcPct val="90000"/>
-            </a:lnSpc>
-            <a:spcBef>
-              <a:spcPct val="0"/>
-            </a:spcBef>
-            <a:spcAft>
-              <a:spcPct val="35000"/>
-            </a:spcAft>
-            <a:buNone/>
-          </a:pPr>
-          <a:endParaRPr lang="en-US" sz="4300" kern="1200"/>
-        </a:p>
-      </dsp:txBody>
-      <dsp:txXfrm>
-        <a:off x="808987" y="1037434"/>
-        <a:ext cx="1336662" cy="668331"/>
+        <a:off x="2503116" y="1588716"/>
+        <a:ext cx="2067780" cy="1033890"/>
       </dsp:txXfrm>
     </dsp:sp>
   </dsp:spTree>
@@ -9691,22 +9264,22 @@
   <xdr:twoCellAnchor>
     <xdr:from>
       <xdr:col>1</xdr:col>
-      <xdr:colOff>1133475</xdr:colOff>
-      <xdr:row>15</xdr:row>
-      <xdr:rowOff>252412</xdr:rowOff>
+      <xdr:colOff>1485900</xdr:colOff>
+      <xdr:row>17</xdr:row>
+      <xdr:rowOff>71437</xdr:rowOff>
     </xdr:from>
     <xdr:to>
       <xdr:col>4</xdr:col>
-      <xdr:colOff>1104900</xdr:colOff>
-      <xdr:row>22</xdr:row>
-      <xdr:rowOff>128587</xdr:rowOff>
+      <xdr:colOff>1457325</xdr:colOff>
+      <xdr:row>23</xdr:row>
+      <xdr:rowOff>357187</xdr:rowOff>
     </xdr:to>
     <xdr:graphicFrame macro="">
       <xdr:nvGraphicFramePr>
-        <xdr:cNvPr id="9" name="Diagram 8">
+        <xdr:cNvPr id="5" name="Diagram 4">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{D1CA4ABF-C5F0-40F9-AE53-7486F01EF485}"/>
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{8CEFEFE0-BF39-48E5-B55A-19B6C7B33D1E}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -10027,7 +9600,7 @@
   <dimension ref="B3"/>
   <sheetViews>
     <sheetView tabSelected="1" topLeftCell="A10" workbookViewId="0">
-      <selection activeCell="G19" sqref="G19"/>
+      <selection activeCell="F18" sqref="F18"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="23" defaultRowHeight="32.25" customHeight="1" x14ac:dyDescent="0.25"/>
